--- a/SEMANA 1/SEMANA 1.xlsx
+++ b/SEMANA 1/SEMANA 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe Luz\Documents\Planejamento 12 Semanas de Estudo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe Luz\Documents\GitHub\Curso-Python\SEMANA 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE5A75A-17AE-4DBB-AD59-AF3F6EE34473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0BEA26-C077-4BCD-82FF-A7E111930BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{4CB22D33-8471-4EBA-B14A-963DBCF0ABFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4CB22D33-8471-4EBA-B14A-963DBCF0ABFB}"/>
   </bookViews>
   <sheets>
     <sheet name="DIA 1" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>Criar um programa que soma dois números</t>
   </si>
   <si>
-    <t>Criar um programa que calcula IMC (se quiser, já entra no clima fitness)</t>
-  </si>
-  <si>
     <r>
       <t>Carga por dia:</t>
     </r>
@@ -596,6 +593,9 @@
   </si>
   <si>
     <t>Video de 4h completo desde a insalação do Python, cobrindo tudo que você precisa para a semana.</t>
+  </si>
+  <si>
+    <t>Criar um programa que calcula IMC</t>
   </si>
 </sst>
 </file>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A8BCA8-AB52-42A4-B4C2-79392D723F8B}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="3" spans="1:1" ht="22.5" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75" customHeight="1">
@@ -1192,7 +1192,7 @@
     </row>
     <row r="13" spans="1:1" ht="22.5" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1221,7 +1221,7 @@
     </row>
     <row r="19" spans="1:6" ht="21.75" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1264,7 +1264,7 @@
     </row>
     <row r="28" spans="1:6" ht="22.5" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1279,7 +1279,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1309,7 +1309,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1317,22 +1317,22 @@
     </row>
     <row r="3" spans="1:1" ht="15.75">
       <c r="A3" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1340,17 +1340,17 @@
     </row>
     <row r="8" spans="1:1" ht="15.75">
       <c r="A8" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -1358,37 +1358,37 @@
     </row>
     <row r="12" spans="1:1" ht="15.75">
       <c r="A12" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1418,7 +1418,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1426,22 +1426,22 @@
     </row>
     <row r="3" spans="1:1" ht="15.75">
       <c r="A3" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1449,22 +1449,22 @@
     </row>
     <row r="8" spans="1:1" ht="15.75">
       <c r="A8" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -1472,32 +1472,32 @@
     </row>
     <row r="13" spans="1:1" ht="15.75">
       <c r="A13" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1527,7 +1527,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1535,22 +1535,22 @@
     </row>
     <row r="3" spans="1:1" ht="15.75">
       <c r="A3" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1558,17 +1558,17 @@
     </row>
     <row r="8" spans="1:1" ht="15.75">
       <c r="A8" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -1579,27 +1579,27 @@
     </row>
     <row r="13" spans="1:1" ht="15.75">
       <c r="A13" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -1629,7 +1629,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1637,22 +1637,22 @@
     </row>
     <row r="3" spans="1:1" ht="15.75">
       <c r="A3" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1660,22 +1660,22 @@
     </row>
     <row r="8" spans="1:1" ht="15.75">
       <c r="A8" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -1683,32 +1683,32 @@
     </row>
     <row r="13" spans="1:1" ht="15.75">
       <c r="A13" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1738,7 +1738,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1746,32 +1746,32 @@
     </row>
     <row r="3" spans="1:1" ht="15.75">
       <c r="A3" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1779,22 +1779,22 @@
     </row>
     <row r="10" spans="1:1" ht="15.75">
       <c r="A10" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1802,27 +1802,27 @@
     </row>
     <row r="15" spans="1:1" ht="15.75">
       <c r="A15" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -1852,7 +1852,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1860,17 +1860,17 @@
     </row>
     <row r="3" spans="1:1" ht="15.75">
       <c r="A3" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1878,12 +1878,12 @@
     </row>
     <row r="7" spans="1:1" ht="15.75">
       <c r="A7" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1891,7 +1891,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -1899,22 +1899,22 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -1922,7 +1922,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -1930,22 +1930,22 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -1953,17 +1953,17 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -1971,22 +1971,22 @@
     </row>
     <row r="28" spans="1:1" ht="15.75">
       <c r="A28" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -2005,7 +2005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9A8726-4B4F-4E0C-8199-F3DC3ADED2A6}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -2016,7 +2016,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2024,7 +2024,7 @@
     </row>
     <row r="3" spans="1:1" ht="15.75">
       <c r="A3" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2034,47 +2034,47 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -2104,7 +2104,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="22.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2112,22 +2112,22 @@
     </row>
     <row r="3" spans="1:1" ht="15.75">
       <c r="A3" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -2135,7 +2135,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:1">
